--- a/data/Padre Las Casas.xlsx
+++ b/data/Padre Las Casas.xlsx
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,16 +1826,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,16 +1874,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">

--- a/data/Padre Las Casas.xlsx
+++ b/data/Padre Las Casas.xlsx
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,16 +1826,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,16 +1874,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">

--- a/data/Padre Las Casas.xlsx
+++ b/data/Padre Las Casas.xlsx
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,16 +1826,16 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos, procesamiento y producción de asfalto, Bitumix CVV, Temuco</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,16 +1874,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>ESPECIALIDADES ASFALTICAS BITUMIX CVV</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128970785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F115" t="n">

--- a/data/Padre Las Casas.xlsx
+++ b/data/Padre Las Casas.xlsx
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F115" t="n">
